--- a/Cross-Validation/dissertationtables.xlsx
+++ b/Cross-Validation/dissertationtables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atticusharrigan/Downloads/Dissertation/analysis/Multi/Cross Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atticusharrigan/Desktop/Cross-Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D4DF6D-B55E-BA43-8DC8-3E3B8142A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F440EF1-E85F-6943-B111-AF78779F29BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="760" windowWidth="27300" windowHeight="21300" activeTab="2" xr2:uid="{F7F42D72-506D-B54B-ACFC-F00B81D32473}"/>
+    <workbookView xWindow="3660" yWindow="760" windowWidth="23280" windowHeight="21300" firstSheet="1" activeTab="3" xr2:uid="{F7F42D72-506D-B54B-ACFC-F00B81D32473}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy all" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="IVE" sheetId="3" r:id="rId3"/>
     <sheet name="Cnj" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="32">
   <si>
     <t>IVE</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>76%%</t>
+  </si>
+  <si>
+    <t>CV Median</t>
+  </si>
+  <si>
+    <t>CV Accuracy Median</t>
   </si>
 </sst>
 </file>
@@ -203,10 +209,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -372,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C058D3-A264-5446-A3DC-FC2205431196}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,154 +589,205 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0.75</v>
+      </c>
+      <c r="C4">
+        <v>0.76</v>
+      </c>
+      <c r="D4">
+        <v>0.73</v>
+      </c>
+      <c r="E4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.81</v>
-      </c>
-      <c r="C8">
-        <v>0.78</v>
-      </c>
-      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.77</v>
       </c>
-      <c r="E8">
-        <v>0.73</v>
+      <c r="C8" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.81</v>
+      </c>
+      <c r="C9">
+        <v>0.78</v>
+      </c>
+      <c r="D9">
+        <v>0.77</v>
+      </c>
+      <c r="E9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0.81</v>
+      </c>
+      <c r="C10">
+        <v>0.78</v>
+      </c>
+      <c r="D10">
+        <v>0.77</v>
+      </c>
+      <c r="E10">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0.77</v>
-      </c>
-      <c r="C13">
-        <v>0.74</v>
-      </c>
-      <c r="D13">
-        <v>0.73</v>
-      </c>
-      <c r="E13">
-        <v>0.71</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.77</v>
+      </c>
+      <c r="C15">
+        <v>0.74</v>
+      </c>
+      <c r="D15">
+        <v>0.73</v>
+      </c>
+      <c r="E15">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.77</v>
+      </c>
+      <c r="C16">
+        <v>0.74</v>
+      </c>
+      <c r="D16">
+        <v>0.73</v>
+      </c>
+      <c r="E16">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -741,19 +798,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7F84A3-8A7E-2B45-978E-180A896ACD78}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -767,10 +825,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -783,11 +844,14 @@
       <c r="D2" s="6">
         <v>0.81392406000000006</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
+        <v>0.81012660000000003</v>
+      </c>
+      <c r="F2" s="8">
         <v>0.77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -800,11 +864,14 @@
       <c r="D3" s="5">
         <v>0.110002292</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
+        <v>0.11315795000000001</v>
+      </c>
+      <c r="F3">
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -817,16 +884,19 @@
       <c r="D4" s="5">
         <v>0.36192308000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
+        <v>0.34890110000000002</v>
+      </c>
+      <c r="F4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -839,11 +909,14 @@
       <c r="D7" s="6">
         <v>0.77835703000000012</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
+        <v>0.77883100000000005</v>
+      </c>
+      <c r="F7" s="9">
         <v>0.79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -856,11 +929,14 @@
       <c r="D8" s="5">
         <v>0.24706013000000002</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
+        <v>0.25386524999999999</v>
+      </c>
+      <c r="F8" s="10">
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -873,16 +949,19 @@
       <c r="D9" s="5">
         <v>0.50589795000000004</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="5">
+        <v>0.50695449999999997</v>
+      </c>
+      <c r="F9" s="10">
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -895,11 +974,14 @@
       <c r="D12" s="6">
         <v>0.76622951000000017</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
+        <v>0.77049179999999995</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -912,11 +994,14 @@
       <c r="D13" s="5">
         <v>0.12942097899999999</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="5">
+        <v>0.13499045000000001</v>
+      </c>
+      <c r="F13" s="10">
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -929,16 +1014,19 @@
       <c r="D14" s="5">
         <v>0.42267972999999992</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
+        <v>0.43320589999999998</v>
+      </c>
+      <c r="F14">
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -951,11 +1039,14 @@
       <c r="D17" s="6">
         <v>0.73266665999999991</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="6">
+        <v>0.73333329999999997</v>
+      </c>
+      <c r="F17" s="11">
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -968,11 +1059,14 @@
       <c r="D18" s="5">
         <v>0.19252363999999997</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
+        <v>0.19747239999999999</v>
+      </c>
+      <c r="F18">
         <v>0.21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -985,7 +1079,10 @@
       <c r="D19" s="5">
         <v>0.44147825999999996</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5">
+        <v>0.44287110000000002</v>
+      </c>
+      <c r="F19">
         <v>0.45</v>
       </c>
     </row>
@@ -996,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222C65A5-9717-D44E-8F28-BCC9C75632AF}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1104,7 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1021,10 +1118,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1037,11 +1137,14 @@
       <c r="D2" s="6">
         <v>0.73770492999999993</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
+        <v>0.74590164999999997</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1054,11 +1157,14 @@
       <c r="D3" s="5">
         <v>0.18046870399999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
+        <v>0.18702389999999999</v>
+      </c>
+      <c r="F3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1071,16 +1177,19 @@
       <c r="D4" s="5">
         <v>0.41904760999999996</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
+        <v>0.43720235000000002</v>
+      </c>
+      <c r="F4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1093,11 +1202,14 @@
       <c r="D7" s="6">
         <v>0.76514285999999987</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
+        <v>0.76476189999999999</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1110,11 +1222,14 @@
       <c r="D8" s="5">
         <v>0.27408513000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
+        <v>0.28229860000000001</v>
+      </c>
+      <c r="F8">
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1127,16 +1242,19 @@
       <c r="D9" s="5">
         <v>0.50300581</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
+        <v>0.50219965</v>
+      </c>
+      <c r="F9">
         <v>0.51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1149,11 +1267,14 @@
       <c r="D12" s="6">
         <v>0.7295546799999999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
+        <v>0.73076925000000004</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1166,11 +1287,14 @@
       <c r="D13" s="5">
         <v>0.21185376000000003</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
+        <v>0.22040319999999999</v>
+      </c>
+      <c r="F13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1183,16 +1307,19 @@
       <c r="D14" s="5">
         <v>0.41886445999999999</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
+        <v>0.42147435</v>
+      </c>
+      <c r="F14">
         <v>0.44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1205,11 +1332,14 @@
       <c r="D17" s="6">
         <v>0.7078512400000001</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
+        <v>0.7128099</v>
+      </c>
+      <c r="F17" s="3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1222,11 +1352,14 @@
       <c r="D18" s="5">
         <v>0.20341081999999999</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
+        <v>0.20820349999999999</v>
+      </c>
+      <c r="F18">
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1372,10 @@
       <c r="D19" s="5">
         <v>0.40989859000000006</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
+        <v>0.41991444999999999</v>
+      </c>
+      <c r="F19">
         <v>0.43</v>
       </c>
     </row>
@@ -1250,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EBF2FB-73CE-3845-86E7-F93B0D75340C}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1261,7 +1397,7 @@
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1275,10 +1411,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1291,11 +1430,14 @@
       <c r="D2" s="6">
         <v>0.77086499000000008</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
+        <v>0.77118645000000008</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1308,11 +1450,14 @@
       <c r="D3" s="5">
         <v>0.158638591</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
+        <v>0.1664091</v>
+      </c>
+      <c r="F3" s="7">
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1325,24 +1470,29 @@
       <c r="D4" s="5">
         <v>0.48565151000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
+        <v>0.50072004999999997</v>
+      </c>
+      <c r="F4">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1355,11 +1505,14 @@
       <c r="D7" s="6">
         <v>0.74255319999999991</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
+        <v>0.74349884999999993</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1372,11 +1525,14 @@
       <c r="D8" s="5">
         <v>6.3094606999999997E-2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
+        <v>6.7472284999999993E-2</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1389,24 +1545,29 @@
       <c r="D9" s="5">
         <v>0.38653904</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="5">
+        <v>0.38855594999999998</v>
+      </c>
+      <c r="F9" s="10">
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1419,11 +1580,14 @@
       <c r="D12" s="6">
         <v>0.73033174000000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
+        <v>0.73459714999999992</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1436,11 +1600,14 @@
       <c r="D13" s="5">
         <v>9.9809863999999998E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
+        <v>0.10209784999999999</v>
+      </c>
+      <c r="F13" s="7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1453,24 +1620,29 @@
       <c r="D14" s="5">
         <v>0.39341090000000006</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
+        <v>0.39846254999999997</v>
+      </c>
+      <c r="F14">
         <v>0.43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1483,11 +1655,14 @@
       <c r="D17" s="6">
         <v>0.70969386999999995</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
+        <v>0.70918364999999994</v>
+      </c>
+      <c r="F17" s="3">
         <v>0.73</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1500,11 +1675,14 @@
       <c r="D18" s="5">
         <v>5.1160887000000002E-2</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
+        <v>7.2545999999999999E-2</v>
+      </c>
+      <c r="F18" s="12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1695,10 @@
       <c r="D19" s="5">
         <v>0.38452556999999998</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
+        <v>0.38115575000000002</v>
+      </c>
+      <c r="F19">
         <v>0.42</v>
       </c>
     </row>
